--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_40.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3703718.768810143</v>
+        <v>3697941.230809418</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2250409.38184714</v>
+        <v>2310564.143223171</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791245</v>
+        <v>419463.0933791239</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6450215.956968731</v>
+        <v>6449035.998187893</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>62.82753375005343</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>359.9647539163101</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.894826399411825</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>98.54676348899916</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175.6983641828944</v>
+        <v>146.4180535502239</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>366.8821906296747</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>210.8447973069795</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>98.54676348899916</v>
+        <v>1.894826399411825</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>133.6001941467923</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>100.730059961885</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,19 +1133,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>298.8218783245197</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>303.1039238549106</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>130.417892858628</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>165.6158245190445</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>302.0690274729815</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C11" t="n">
         <v>295.2524720077822</v>
@@ -1376,19 +1376,19 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F11" t="n">
         <v>318.7342196110055</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>141.4782195346027</v>
       </c>
       <c r="H11" t="n">
         <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T11" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V11" t="n">
-        <v>244.6944667292003</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X11" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y11" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C13" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D13" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G13" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H13" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I13" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S13" t="n">
         <v>106.7966485049597</v>
@@ -1585,13 +1585,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V13" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W13" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X13" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y13" t="n">
         <v>126.8896660972066</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C14" t="n">
         <v>295.2524720077822</v>
@@ -1613,7 +1613,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E14" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F14" t="n">
         <v>318.7342196110055</v>
@@ -1622,10 +1622,10 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U14" t="n">
-        <v>81.61838887131719</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>244.6944667292003</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>273.2977702070789</v>
+        <v>131.6657421126917</v>
       </c>
       <c r="X14" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y14" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C16" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H16" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I16" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S16" t="n">
         <v>106.7966485049597</v>
@@ -1822,13 +1822,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V16" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W16" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X16" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y16" t="n">
         <v>126.8896660972066</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277517</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
         <v>90.90562710059311</v>
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723237</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>286.9034269003579</v>
+        <v>280.4599644277187</v>
       </c>
       <c r="C32" t="n">
-        <v>279.6573751281737</v>
+        <v>273.2139126555345</v>
       </c>
       <c r="D32" t="n">
-        <v>272.0003461415739</v>
+        <v>265.5568836689347</v>
       </c>
       <c r="E32" t="n">
-        <v>288.9713182806959</v>
+        <v>282.5278558080567</v>
       </c>
       <c r="F32" t="n">
-        <v>303.139122731397</v>
+        <v>296.6956602587578</v>
       </c>
       <c r="G32" t="n">
-        <v>299.4447566029519</v>
+        <v>293.0012941303127</v>
       </c>
       <c r="H32" t="n">
-        <v>211.2558485752492</v>
+        <v>204.81238610261</v>
       </c>
       <c r="I32" t="n">
-        <v>27.36737438453483</v>
+        <v>20.92391191189562</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>55.26204815443495</v>
+        <v>48.81858568179574</v>
       </c>
       <c r="T32" t="n">
-        <v>111.6792250622525</v>
+        <v>105.2357625896133</v>
       </c>
       <c r="U32" t="n">
-        <v>143.6088309158224</v>
+        <v>137.1653684431832</v>
       </c>
       <c r="V32" t="n">
-        <v>229.0993698495918</v>
+        <v>222.6559073769526</v>
       </c>
       <c r="W32" t="n">
-        <v>257.7026733274704</v>
+        <v>251.2592108548312</v>
       </c>
       <c r="X32" t="n">
-        <v>275.9717076623488</v>
+        <v>269.5282451897095</v>
       </c>
       <c r="Y32" t="n">
-        <v>282.9394306346799</v>
+        <v>276.4959681620407</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.76956715046327</v>
+        <v>67.32610467782406</v>
       </c>
       <c r="C34" t="n">
-        <v>58.91669540074568</v>
+        <v>52.47323292810647</v>
       </c>
       <c r="D34" t="n">
-        <v>44.49041061258541</v>
+        <v>38.0469481399462</v>
       </c>
       <c r="E34" t="n">
-        <v>44.41685266546452</v>
+        <v>37.97339019282531</v>
       </c>
       <c r="F34" t="n">
-        <v>46.16630408523179</v>
+        <v>39.72284161259257</v>
       </c>
       <c r="G34" t="n">
-        <v>56.98514200762392</v>
+        <v>50.54167953498471</v>
       </c>
       <c r="H34" t="n">
-        <v>44.33739417419596</v>
+        <v>37.89393170155675</v>
       </c>
       <c r="I34" t="n">
-        <v>22.17710975536789</v>
+        <v>15.73364728272868</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>13.07560811982381</v>
+        <v>6.632145647184601</v>
       </c>
       <c r="S34" t="n">
-        <v>91.20155162535113</v>
+        <v>84.75808915271192</v>
       </c>
       <c r="T34" t="n">
-        <v>123.7754899595232</v>
+        <v>117.332027486884</v>
       </c>
       <c r="U34" t="n">
-        <v>172.9980324865931</v>
+        <v>166.5545700139539</v>
       </c>
       <c r="V34" t="n">
-        <v>153.733180373459</v>
+        <v>147.2897179008198</v>
       </c>
       <c r="W34" t="n">
-        <v>170.9107266942092</v>
+        <v>164.46726422157</v>
       </c>
       <c r="X34" t="n">
-        <v>122.1531476409217</v>
+        <v>115.7096851682825</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.2945692175981</v>
+        <v>104.8511067449589</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H35" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3326,10 +3326,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y35" t="n">
         <v>262.1658326730205</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U37" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W37" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>300.0229587840511</v>
+        <v>124.8698778690617</v>
       </c>
       <c r="C41" t="n">
-        <v>292.7769070118669</v>
+        <v>292.7769070118668</v>
       </c>
       <c r="D41" t="n">
-        <v>285.1198780252671</v>
+        <v>285.119878025267</v>
       </c>
       <c r="E41" t="n">
-        <v>302.0908501643891</v>
+        <v>302.090850164389</v>
       </c>
       <c r="F41" t="n">
-        <v>316.2586546150902</v>
+        <v>316.2586546150901</v>
       </c>
       <c r="G41" t="n">
         <v>312.564288486645</v>
       </c>
       <c r="H41" t="n">
-        <v>224.3753804589424</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>124.7987569459456</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>156.7283627995155</v>
       </c>
       <c r="V41" t="n">
-        <v>124.2175601048138</v>
+        <v>242.2189017332849</v>
       </c>
       <c r="W41" t="n">
-        <v>270.8222052111636</v>
+        <v>270.8222052111635</v>
       </c>
       <c r="X41" t="n">
-        <v>289.0912395460419</v>
+        <v>289.0912395460418</v>
       </c>
       <c r="Y41" t="n">
-        <v>296.0589625183731</v>
+        <v>296.058962518373</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.88909903415643</v>
+        <v>86.88909903415636</v>
       </c>
       <c r="C43" t="n">
-        <v>72.03622728443884</v>
+        <v>72.03622728443877</v>
       </c>
       <c r="D43" t="n">
-        <v>57.60994249627856</v>
+        <v>57.60994249627849</v>
       </c>
       <c r="E43" t="n">
-        <v>57.53638454915767</v>
+        <v>57.5363845491576</v>
       </c>
       <c r="F43" t="n">
-        <v>59.28583596892494</v>
+        <v>59.28583596892487</v>
       </c>
       <c r="G43" t="n">
-        <v>70.10467389131708</v>
+        <v>70.10467389131701</v>
       </c>
       <c r="H43" t="n">
-        <v>57.45692605788912</v>
+        <v>57.45692605788905</v>
       </c>
       <c r="I43" t="n">
-        <v>35.29664163906105</v>
+        <v>35.29664163906098</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,25 +3943,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>26.19514000351697</v>
+        <v>26.1951400035169</v>
       </c>
       <c r="S43" t="n">
-        <v>104.3210835090443</v>
+        <v>104.3210835090442</v>
       </c>
       <c r="T43" t="n">
-        <v>136.8950218432164</v>
+        <v>136.8950218432163</v>
       </c>
       <c r="U43" t="n">
         <v>186.1175643702862</v>
       </c>
       <c r="V43" t="n">
-        <v>166.8527122571522</v>
+        <v>166.8527122571521</v>
       </c>
       <c r="W43" t="n">
         <v>184.0302585779023</v>
       </c>
       <c r="X43" t="n">
-        <v>135.2726795246149</v>
+        <v>135.2726795246148</v>
       </c>
       <c r="Y43" t="n">
         <v>124.4141011012912</v>
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>300.0229587840511</v>
+        <v>300.022958784051</v>
       </c>
       <c r="C44" t="n">
-        <v>292.7769070118669</v>
+        <v>292.7769070118667</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>285.119878025267</v>
       </c>
       <c r="E44" t="n">
-        <v>302.0908501643891</v>
+        <v>302.0908501643889</v>
       </c>
       <c r="F44" t="n">
-        <v>316.2586546150902</v>
+        <v>316.2586546150901</v>
       </c>
       <c r="G44" t="n">
-        <v>312.564288486645</v>
+        <v>312.5642884866449</v>
       </c>
       <c r="H44" t="n">
-        <v>224.3753804589424</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>40.48690626822798</v>
+        <v>40.48690626822788</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.38158003812811</v>
+        <v>68.38158003812801</v>
       </c>
       <c r="T44" t="n">
-        <v>124.7987569459457</v>
+        <v>124.7987569459456</v>
       </c>
       <c r="U44" t="n">
-        <v>156.7283627995155</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>18.94183207826387</v>
+        <v>114.9256973114554</v>
       </c>
       <c r="W44" t="n">
-        <v>270.8222052111636</v>
+        <v>270.8222052111635</v>
       </c>
       <c r="X44" t="n">
-        <v>289.0912395460419</v>
+        <v>289.0912395460418</v>
       </c>
       <c r="Y44" t="n">
-        <v>296.0589625183731</v>
+        <v>296.0589625183729</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>86.88909903415643</v>
+        <v>86.88909903415633</v>
       </c>
       <c r="C46" t="n">
-        <v>72.03622728443884</v>
+        <v>72.03622728443874</v>
       </c>
       <c r="D46" t="n">
-        <v>57.60994249627856</v>
+        <v>57.60994249627846</v>
       </c>
       <c r="E46" t="n">
-        <v>57.53638454915767</v>
+        <v>57.53638454915757</v>
       </c>
       <c r="F46" t="n">
-        <v>59.28583596892494</v>
+        <v>59.28583596892484</v>
       </c>
       <c r="G46" t="n">
-        <v>70.10467389131708</v>
+        <v>70.10467389131698</v>
       </c>
       <c r="H46" t="n">
-        <v>57.45692605788912</v>
+        <v>57.45692605788902</v>
       </c>
       <c r="I46" t="n">
-        <v>35.29664163906105</v>
+        <v>35.29664163906095</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>26.19514000351697</v>
+        <v>26.19514000351687</v>
       </c>
       <c r="S46" t="n">
-        <v>104.3210835090443</v>
+        <v>104.3210835090442</v>
       </c>
       <c r="T46" t="n">
-        <v>136.8950218432164</v>
+        <v>136.8950218432163</v>
       </c>
       <c r="U46" t="n">
-        <v>186.1175643702862</v>
+        <v>186.1175643702861</v>
       </c>
       <c r="V46" t="n">
-        <v>166.8527122571522</v>
+        <v>166.8527122571521</v>
       </c>
       <c r="W46" t="n">
-        <v>184.0302585779023</v>
+        <v>184.0302585779022</v>
       </c>
       <c r="X46" t="n">
-        <v>135.2726795246149</v>
+        <v>135.2726795246148</v>
       </c>
       <c r="Y46" t="n">
-        <v>124.4141011012912</v>
+        <v>124.4141011012911</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1275.131457402513</v>
+        <v>996.5708550878933</v>
       </c>
       <c r="C2" t="n">
-        <v>1275.131457402513</v>
+        <v>603.3953535908238</v>
       </c>
       <c r="D2" t="n">
-        <v>1275.131457402513</v>
+        <v>603.3953535908238</v>
       </c>
       <c r="E2" t="n">
-        <v>872.5479325190579</v>
+        <v>200.8118287073683</v>
       </c>
       <c r="F2" t="n">
-        <v>455.6534940490357</v>
+        <v>187.9577942777502</v>
       </c>
       <c r="G2" t="n">
-        <v>42.49073853703879</v>
+        <v>178.8354428061574</v>
       </c>
       <c r="H2" t="n">
-        <v>42.49073853703879</v>
+        <v>178.8354428061574</v>
       </c>
       <c r="I2" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="J2" t="n">
-        <v>42.49073853703879</v>
+        <v>185.1480988074503</v>
       </c>
       <c r="K2" t="n">
-        <v>42.49073853703879</v>
+        <v>544.1304548349121</v>
       </c>
       <c r="L2" t="n">
-        <v>99.81849489543083</v>
+        <v>1037.450746553441</v>
       </c>
       <c r="M2" t="n">
-        <v>625.6413842912859</v>
+        <v>1037.450746553441</v>
       </c>
       <c r="N2" t="n">
-        <v>1151.464273687141</v>
+        <v>1051.843641766313</v>
       </c>
       <c r="O2" t="n">
-        <v>1591.50387457947</v>
+        <v>1491.883242658641</v>
       </c>
       <c r="P2" t="n">
-        <v>1939.691366710991</v>
+        <v>1840.070734790163</v>
       </c>
       <c r="Q2" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="R2" t="n">
-        <v>2124.53692685194</v>
+        <v>1986.923381216634</v>
       </c>
       <c r="S2" t="n">
-        <v>2061.074771548856</v>
+        <v>1986.923381216634</v>
       </c>
       <c r="T2" t="n">
-        <v>2061.074771548856</v>
+        <v>1986.923381216634</v>
       </c>
       <c r="U2" t="n">
-        <v>2061.074771548856</v>
+        <v>1731.170651651232</v>
       </c>
       <c r="V2" t="n">
-        <v>2061.074771548856</v>
+        <v>1731.170651651232</v>
       </c>
       <c r="W2" t="n">
-        <v>2061.074771548856</v>
+        <v>1360.17161661952</v>
       </c>
       <c r="X2" t="n">
-        <v>1671.622166481912</v>
+        <v>996.5708550878933</v>
       </c>
       <c r="Y2" t="n">
-        <v>1275.131457402513</v>
+        <v>996.5708550878933</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>841.8567216770698</v>
+        <v>839.8643090386531</v>
       </c>
       <c r="C3" t="n">
-        <v>691.202491237162</v>
+        <v>689.2100785987453</v>
       </c>
       <c r="D3" t="n">
-        <v>561.1135238586423</v>
+        <v>559.1211112202257</v>
       </c>
       <c r="E3" t="n">
-        <v>424.66703296953</v>
+        <v>422.6746203311134</v>
       </c>
       <c r="F3" t="n">
-        <v>300.2352268526618</v>
+        <v>298.2428142142452</v>
       </c>
       <c r="G3" t="n">
-        <v>180.1754089245263</v>
+        <v>178.1829962861097</v>
       </c>
       <c r="H3" t="n">
-        <v>91.87799252512721</v>
+        <v>89.88557988671064</v>
       </c>
       <c r="I3" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="J3" t="n">
-        <v>155.6057207567662</v>
+        <v>153.6133081183496</v>
       </c>
       <c r="K3" t="n">
-        <v>475.3448668189926</v>
+        <v>473.352454180576</v>
       </c>
       <c r="L3" t="n">
-        <v>475.3448668189926</v>
+        <v>956.9185400788892</v>
       </c>
       <c r="M3" t="n">
-        <v>847.8286633102132</v>
+        <v>1289.384420380771</v>
       </c>
       <c r="N3" t="n">
-        <v>1373.651552706068</v>
+        <v>1289.384420380771</v>
       </c>
       <c r="O3" t="n">
-        <v>1890.171835297049</v>
+        <v>1790.551203376221</v>
       </c>
       <c r="P3" t="n">
-        <v>1890.171835297049</v>
+        <v>1790.551203376221</v>
       </c>
       <c r="Q3" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="R3" t="n">
-        <v>2124.53692685194</v>
+        <v>2023.0023288711</v>
       </c>
       <c r="S3" t="n">
-        <v>2124.53692685194</v>
+        <v>2023.0023288711</v>
       </c>
       <c r="T3" t="n">
-        <v>2024.994741509516</v>
+        <v>2023.0023288711</v>
       </c>
       <c r="U3" t="n">
-        <v>1814.931598188158</v>
+        <v>1812.939185549742</v>
       </c>
       <c r="V3" t="n">
-        <v>1592.391596559225</v>
+        <v>1590.399183920809</v>
       </c>
       <c r="W3" t="n">
-        <v>1362.274350692512</v>
+        <v>1360.281938054095</v>
       </c>
       <c r="X3" t="n">
-        <v>1172.967273042524</v>
+        <v>1170.974860404107</v>
       </c>
       <c r="Y3" t="n">
-        <v>993.6530561180311</v>
+        <v>991.6606434796145</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42.49073853703879</v>
+        <v>70.87659607252029</v>
       </c>
       <c r="C4" t="n">
-        <v>42.49073853703879</v>
+        <v>70.87659607252029</v>
       </c>
       <c r="D4" t="n">
-        <v>42.49073853703879</v>
+        <v>70.87659607252029</v>
       </c>
       <c r="E4" t="n">
-        <v>42.49073853703879</v>
+        <v>70.87659607252029</v>
       </c>
       <c r="F4" t="n">
-        <v>42.49073853703879</v>
+        <v>70.87659607252029</v>
       </c>
       <c r="G4" t="n">
-        <v>42.49073853703879</v>
+        <v>70.87659607252029</v>
       </c>
       <c r="H4" t="n">
-        <v>42.49073853703879</v>
+        <v>70.87659607252029</v>
       </c>
       <c r="I4" t="n">
-        <v>42.49073853703879</v>
+        <v>70.87659607252029</v>
       </c>
       <c r="J4" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L4" t="n">
-        <v>288.4534195207805</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M4" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N4" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O4" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P4" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q4" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R4" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="S4" t="n">
-        <v>741.1216772611406</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="T4" t="n">
-        <v>505.4026254293747</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="U4" t="n">
-        <v>219.9638336712756</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="V4" t="n">
-        <v>219.9638336712756</v>
+        <v>675.9660032609988</v>
       </c>
       <c r="W4" t="n">
-        <v>219.9638336712756</v>
+        <v>675.9660032609988</v>
       </c>
       <c r="X4" t="n">
-        <v>219.9638336712756</v>
+        <v>441.8856810439819</v>
       </c>
       <c r="Y4" t="n">
-        <v>219.9638336712756</v>
+        <v>218.7736198606252</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>829.9732483501668</v>
+        <v>806.9618729387605</v>
       </c>
       <c r="C5" t="n">
-        <v>829.9732483501668</v>
+        <v>413.7863714416911</v>
       </c>
       <c r="D5" t="n">
-        <v>829.9732483501668</v>
+        <v>413.7863714416911</v>
       </c>
       <c r="E5" t="n">
-        <v>829.9732483501668</v>
+        <v>413.7863714416911</v>
       </c>
       <c r="F5" t="n">
-        <v>413.0788098801446</v>
+        <v>400.9323370120729</v>
       </c>
       <c r="G5" t="n">
-        <v>42.49073853703879</v>
+        <v>391.8099855404801</v>
       </c>
       <c r="H5" t="n">
-        <v>42.49073853703879</v>
+        <v>178.8354428061574</v>
       </c>
       <c r="I5" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1405114458669</v>
+        <v>185.1480988074503</v>
       </c>
       <c r="K5" t="n">
-        <v>546.1228674733287</v>
+        <v>185.1480988074503</v>
       </c>
       <c r="L5" t="n">
-        <v>1039.443159191858</v>
+        <v>550.6768587708627</v>
       </c>
       <c r="M5" t="n">
-        <v>1499.651765818663</v>
+        <v>550.6768587708627</v>
       </c>
       <c r="N5" t="n">
-        <v>1499.651765818663</v>
+        <v>1051.843641766313</v>
       </c>
       <c r="O5" t="n">
-        <v>1939.691366710991</v>
+        <v>1491.883242658641</v>
       </c>
       <c r="P5" t="n">
-        <v>1939.691366710991</v>
+        <v>1840.070734790163</v>
       </c>
       <c r="Q5" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="R5" t="n">
-        <v>2124.53692685194</v>
+        <v>1986.923381216634</v>
       </c>
       <c r="S5" t="n">
-        <v>1958.02337179299</v>
+        <v>1820.409826157684</v>
       </c>
       <c r="T5" t="n">
-        <v>1958.02337179299</v>
+        <v>1596.909223717101</v>
       </c>
       <c r="U5" t="n">
-        <v>1958.02337179299</v>
+        <v>1596.909223717101</v>
       </c>
       <c r="V5" t="n">
-        <v>1615.916562496509</v>
+        <v>1596.909223717101</v>
       </c>
       <c r="W5" t="n">
-        <v>1615.916562496509</v>
+        <v>1596.909223717101</v>
       </c>
       <c r="X5" t="n">
-        <v>1226.463957429566</v>
+        <v>1207.456618650157</v>
       </c>
       <c r="Y5" t="n">
-        <v>829.9732483501668</v>
+        <v>1207.456618650157</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>841.8567216770698</v>
+        <v>839.8643090386531</v>
       </c>
       <c r="C6" t="n">
-        <v>691.202491237162</v>
+        <v>689.2100785987453</v>
       </c>
       <c r="D6" t="n">
-        <v>561.1135238586423</v>
+        <v>559.1211112202257</v>
       </c>
       <c r="E6" t="n">
-        <v>424.66703296953</v>
+        <v>422.6746203311134</v>
       </c>
       <c r="F6" t="n">
-        <v>300.2352268526618</v>
+        <v>298.2428142142452</v>
       </c>
       <c r="G6" t="n">
-        <v>180.1754089245263</v>
+        <v>178.1829962861097</v>
       </c>
       <c r="H6" t="n">
-        <v>91.87799252512721</v>
+        <v>89.88557988671064</v>
       </c>
       <c r="I6" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="J6" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="K6" t="n">
-        <v>42.49073853703879</v>
+        <v>360.2374719608487</v>
       </c>
       <c r="L6" t="n">
-        <v>526.056824435352</v>
+        <v>360.2374719608487</v>
       </c>
       <c r="M6" t="n">
-        <v>968.0301839896707</v>
+        <v>788.2176373853208</v>
       </c>
       <c r="N6" t="n">
-        <v>968.0301839896707</v>
+        <v>1289.384420380771</v>
       </c>
       <c r="O6" t="n">
-        <v>1484.550466580652</v>
+        <v>1790.551203376221</v>
       </c>
       <c r="P6" t="n">
-        <v>1890.171835297049</v>
+        <v>1790.551203376221</v>
       </c>
       <c r="Q6" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="R6" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="S6" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="T6" t="n">
-        <v>2024.994741509516</v>
+        <v>2023.0023288711</v>
       </c>
       <c r="U6" t="n">
-        <v>1814.931598188158</v>
+        <v>1812.939185549742</v>
       </c>
       <c r="V6" t="n">
-        <v>1592.391596559225</v>
+        <v>1590.399183920809</v>
       </c>
       <c r="W6" t="n">
-        <v>1362.274350692512</v>
+        <v>1360.281938054095</v>
       </c>
       <c r="X6" t="n">
-        <v>1172.967273042524</v>
+        <v>1170.974860404107</v>
       </c>
       <c r="Y6" t="n">
-        <v>993.6530561180311</v>
+        <v>991.6606434796145</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>658.4989693204923</v>
+        <v>654.9897944338379</v>
       </c>
       <c r="C7" t="n">
-        <v>658.4989693204923</v>
+        <v>484.7846764998271</v>
       </c>
       <c r="D7" t="n">
-        <v>523.5492782631263</v>
+        <v>329.1515634023418</v>
       </c>
       <c r="E7" t="n">
-        <v>523.5492782631263</v>
+        <v>173.5927512615444</v>
       </c>
       <c r="F7" t="n">
-        <v>366.2233434760993</v>
+        <v>173.5927512615444</v>
       </c>
       <c r="G7" t="n">
-        <v>197.9692895755448</v>
+        <v>173.5927512615444</v>
       </c>
       <c r="H7" t="n">
-        <v>42.49073853703879</v>
+        <v>173.5927512615444</v>
       </c>
       <c r="I7" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="J7" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="K7" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L7" t="n">
-        <v>288.4534195207805</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M7" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N7" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O7" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P7" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="S7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="T7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="U7" t="n">
-        <v>658.4989693204923</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="V7" t="n">
-        <v>658.4989693204923</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="W7" t="n">
-        <v>658.4989693204923</v>
+        <v>840.1978131251392</v>
       </c>
       <c r="X7" t="n">
-        <v>658.4989693204923</v>
+        <v>840.1978131251392</v>
       </c>
       <c r="Y7" t="n">
-        <v>658.4989693204923</v>
+        <v>840.1978131251392</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1179.210445219441</v>
+        <v>1141.217531504963</v>
       </c>
       <c r="C8" t="n">
-        <v>877.3701640835627</v>
+        <v>748.0420300078936</v>
       </c>
       <c r="D8" t="n">
-        <v>877.3701640835627</v>
+        <v>362.6009012245613</v>
       </c>
       <c r="E8" t="n">
-        <v>877.3701640835627</v>
+        <v>362.6009012245613</v>
       </c>
       <c r="F8" t="n">
-        <v>460.4757256135405</v>
+        <v>56.43532157313638</v>
       </c>
       <c r="G8" t="n">
         <v>47.31297010154361</v>
@@ -4802,19 +4802,19 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>550.9450990378335</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L8" t="n">
-        <v>851.7967205028091</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M8" t="n">
-        <v>1397.79762054739</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N8" t="n">
-        <v>1925.608904184852</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O8" t="n">
         <v>2365.64850507718</v>
@@ -4826,28 +4826,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="V8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="W8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="X8" t="n">
-        <v>1976.195900010237</v>
+        <v>1938.202986295759</v>
       </c>
       <c r="Y8" t="n">
-        <v>1579.705190930838</v>
+        <v>1541.71227721636</v>
       </c>
     </row>
     <row r="9">
@@ -4890,16 +4890,16 @@
         <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>1209.141762214911</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>373.1512011330396</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C10" t="n">
-        <v>202.9460831990289</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>817.0247473313507</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>661.4659351905532</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>504.1400004035262</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>335.8859465029718</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="I10" t="n">
         <v>47.31297010154361</v>
@@ -5002,10 +5002,10 @@
         <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>781.4712810076976</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y10" t="n">
-        <v>558.3592198243409</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1552.989800955909</v>
+        <v>1695.897093415105</v>
       </c>
       <c r="C11" t="n">
-        <v>1254.754980746028</v>
+        <v>1397.662273205224</v>
       </c>
       <c r="D11" t="n">
-        <v>964.2545332498844</v>
+        <v>1107.161825709079</v>
       </c>
       <c r="E11" t="n">
-        <v>656.6116896536172</v>
+        <v>799.5189821128124</v>
       </c>
       <c r="F11" t="n">
-        <v>334.6579324707833</v>
+        <v>477.5652249299783</v>
       </c>
       <c r="G11" t="n">
-        <v>334.6579324707833</v>
+        <v>334.6579324707834</v>
       </c>
       <c r="H11" t="n">
-        <v>105.5155633244623</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T11" t="n">
-        <v>2977.396464052381</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="U11" t="n">
-        <v>2977.396464052381</v>
+        <v>2873.571463155803</v>
       </c>
       <c r="V11" t="n">
-        <v>2730.230336043088</v>
+        <v>2873.571463155803</v>
       </c>
       <c r="W11" t="n">
-        <v>2454.171982298564</v>
+        <v>2597.513109411278</v>
       </c>
       <c r="X11" t="n">
-        <v>2159.660058518809</v>
+        <v>2303.001185631524</v>
       </c>
       <c r="Y11" t="n">
-        <v>1858.110030726598</v>
+        <v>2001.451157839313</v>
       </c>
     </row>
     <row r="12">
@@ -5121,22 +5121,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L12" t="n">
-        <v>545.6852136024288</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M12" t="n">
-        <v>1173.45686322911</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>2148.973980501895</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,7 +5173,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551003</v>
+        <v>493.0843669551004</v>
       </c>
       <c r="C13" t="n">
         <v>417.8199303082779</v>
@@ -5182,10 +5182,10 @@
         <v>357.127498497981</v>
       </c>
       <c r="E13" t="n">
-        <v>296.5093676443718</v>
+        <v>296.5093676443719</v>
       </c>
       <c r="F13" t="n">
-        <v>234.1241141445331</v>
+        <v>234.1241141445332</v>
       </c>
       <c r="G13" t="n">
         <v>160.810741531167</v>
@@ -5197,25 +5197,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>125.3967468362513</v>
+        <v>125.396746836251</v>
       </c>
       <c r="K13" t="n">
-        <v>300.2831496757665</v>
+        <v>300.2831496757661</v>
       </c>
       <c r="L13" t="n">
-        <v>557.4621512791393</v>
+        <v>557.4621512791392</v>
       </c>
       <c r="M13" t="n">
-        <v>836.8050913469767</v>
+        <v>836.8050913469764</v>
       </c>
       <c r="N13" t="n">
         <v>1113.046087107759</v>
       </c>
       <c r="O13" t="n">
-        <v>1368.802215879041</v>
+        <v>1368.80221587904</v>
       </c>
       <c r="P13" t="n">
-        <v>1581.729743385193</v>
+        <v>1581.729743385192</v>
       </c>
       <c r="Q13" t="n">
         <v>1678.203301484817</v>
@@ -5230,19 +5230,19 @@
         <v>1400.589220329742</v>
       </c>
       <c r="U13" t="n">
-        <v>1210.091109858832</v>
+        <v>1210.091109858831</v>
       </c>
       <c r="V13" t="n">
         <v>1039.052445966844</v>
       </c>
       <c r="W13" t="n">
-        <v>850.6627251852101</v>
+        <v>850.6627251852098</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553815</v>
+        <v>711.5230842553813</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592133</v>
+        <v>583.3517043592134</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1598.673070414051</v>
+        <v>1871.211875180718</v>
       </c>
       <c r="C14" t="n">
-        <v>1300.438250204169</v>
+        <v>1572.977054970837</v>
       </c>
       <c r="D14" t="n">
-        <v>1009.937802708025</v>
+        <v>1282.476607474693</v>
       </c>
       <c r="E14" t="n">
-        <v>702.2949591117579</v>
+        <v>974.8337638784258</v>
       </c>
       <c r="F14" t="n">
-        <v>380.341201928924</v>
+        <v>652.8800066955919</v>
       </c>
       <c r="G14" t="n">
-        <v>62.11912770411553</v>
+        <v>334.6579324707834</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411553</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129444</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404062</v>
       </c>
       <c r="L14" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M14" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N14" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O14" t="n">
         <v>2572.923332933306</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205776</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T14" t="n">
-        <v>3105.956385205776</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U14" t="n">
-        <v>3023.513568164042</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="V14" t="n">
-        <v>2776.347440154749</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="W14" t="n">
-        <v>2500.289086410225</v>
+        <v>2772.827891176892</v>
       </c>
       <c r="X14" t="n">
-        <v>2205.77716263047</v>
+        <v>2478.315967397137</v>
       </c>
       <c r="Y14" t="n">
-        <v>1904.227134838259</v>
+        <v>2176.765939604927</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5355,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L15" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M15" t="n">
-        <v>978.5393418843826</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N15" t="n">
-        <v>1634.317313094942</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O15" t="n">
-        <v>2150.837595685923</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P15" t="n">
         <v>2380.454662679751</v>
@@ -5413,19 +5413,19 @@
         <v>493.0843669551003</v>
       </c>
       <c r="C16" t="n">
-        <v>417.8199303082779</v>
+        <v>417.8199303082778</v>
       </c>
       <c r="D16" t="n">
-        <v>357.127498497981</v>
+        <v>357.1274984979809</v>
       </c>
       <c r="E16" t="n">
-        <v>296.5093676443718</v>
+        <v>296.5093676443717</v>
       </c>
       <c r="F16" t="n">
-        <v>234.1241141445331</v>
+        <v>234.1241141445329</v>
       </c>
       <c r="G16" t="n">
-        <v>160.810741531167</v>
+        <v>160.8107415311667</v>
       </c>
       <c r="H16" t="n">
         <v>100.2728717798493</v>
@@ -5452,7 +5452,7 @@
         <v>1368.802215879041</v>
       </c>
       <c r="P16" t="n">
-        <v>1581.729743385192</v>
+        <v>1581.729743385193</v>
       </c>
       <c r="Q16" t="n">
         <v>1678.203301484817</v>
@@ -5476,10 +5476,10 @@
         <v>850.6627251852101</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553816</v>
+        <v>711.5230842553815</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592133</v>
+        <v>583.3517043592132</v>
       </c>
     </row>
     <row r="17">
@@ -5492,40 +5492,40 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D17" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292423</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129444</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404062</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M17" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N17" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O17" t="n">
         <v>2572.923332933306</v>
@@ -5540,7 +5540,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5592,25 +5592,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>580.3847592515303</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1208.156408878212</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N18" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O18" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5671,22 +5671,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229933</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>278.5901810446697</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N19" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O19" t="n">
-        <v>845.8474307072222</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P19" t="n">
         <v>1094.779966106229</v>
@@ -5744,25 +5744,25 @@
         <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924224</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129445</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404064</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5771,13 +5771,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5795,7 +5795,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="21">
@@ -5829,16 +5829,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>865.4243596646552</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N21" t="n">
         <v>1458.313011372373</v>
@@ -5884,49 +5884,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N22" t="n">
-        <v>677.5630210573304</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O22" t="n">
-        <v>840.2677880990384</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P22" t="n">
-        <v>965.7235964838006</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
         <v>1098.20216247628</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="23">
@@ -5981,25 +5981,25 @@
         <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924224</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129445</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404064</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M23" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O23" t="n">
         <v>2572.923332933306</v>
@@ -6008,10 +6008,10 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
         <v>3071.119566829236</v>
@@ -6023,13 +6023,13 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W23" t="n">
         <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
         <v>1882.877496443165</v>
@@ -6066,25 +6066,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>802.5350401618138</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N24" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6148,25 +6148,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N25" t="n">
         <v>806.6193906797589</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424151</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.22278621427</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218597</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390258</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142174</v>
       </c>
       <c r="H26" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755027</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J26" t="n">
         <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>763.0997113429868</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L26" t="n">
-        <v>1349.471364791089</v>
+        <v>1163.368641331942</v>
       </c>
       <c r="M26" t="n">
-        <v>1988.523626565243</v>
+        <v>1739.339056658945</v>
       </c>
       <c r="N26" t="n">
-        <v>2516.334910202705</v>
+        <v>2360.20170202598</v>
       </c>
       <c r="O26" t="n">
-        <v>3049.425872824607</v>
+        <v>2893.292664647882</v>
       </c>
       <c r="P26" t="n">
-        <v>3427.582880238552</v>
+        <v>3334.531518508977</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377514</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174145</v>
+        <v>3307.298104174142</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.131976164849</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420325</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640573</v>
+        <v>2489.56169864057</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.011670848359</v>
       </c>
     </row>
     <row r="27">
@@ -6297,31 +6297,31 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755027</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755027</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>108.0644045966515</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>591.6304904949648</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1219.402140121646</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N27" t="n">
-        <v>1875.180111332205</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O27" t="n">
-        <v>2391.700393923186</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P27" t="n">
-        <v>2391.700393923186</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985354</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C28" t="n">
         <v>429.065661551713</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414158</v>
+        <v>368.3732297414161</v>
       </c>
       <c r="E28" t="n">
-        <v>307.755098887807</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879683</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746017</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
         <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755027</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
         <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225743</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P28" t="n">
         <v>1592.975474628627</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R28" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T28" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V28" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286452</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988167</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026484</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="29">
@@ -6440,19 +6440,19 @@
         <v>1882.457606424152</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.07949512186</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390261</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142176</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,28 +6461,28 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429868</v>
+        <v>576.9969878838402</v>
       </c>
       <c r="L29" t="n">
-        <v>1349.471364791089</v>
+        <v>1100.286794884791</v>
       </c>
       <c r="M29" t="n">
-        <v>1988.523626565243</v>
+        <v>1739.339056658945</v>
       </c>
       <c r="N29" t="n">
-        <v>2609.386271932278</v>
+        <v>2360.20170202598</v>
       </c>
       <c r="O29" t="n">
-        <v>3049.425872824607</v>
+        <v>2893.292664647882</v>
       </c>
       <c r="P29" t="n">
-        <v>3483.397387236565</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q29" t="n">
-        <v>3668.242947377513</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R29" t="n">
         <v>3668.242947377513</v>
@@ -6491,7 +6491,7 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452358</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
         <v>3307.298104174144</v>
@@ -6540,25 +6540,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>108.0644045966515</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>591.6304904949648</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1219.402140121646</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N30" t="n">
-        <v>1875.180111332205</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O30" t="n">
-        <v>2391.700393923186</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P30" t="n">
-        <v>2391.700393923186</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985348</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517124</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746017</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796859</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192008</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225739</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6643,7 +6643,7 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648016</v>
+        <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
         <v>1552.613322117754</v>
@@ -6655,16 +6655,16 @@
         <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210278</v>
+        <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286445</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988159</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026476</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1767.367013084638</v>
+        <v>1719.814764781096</v>
       </c>
       <c r="C32" t="n">
-        <v>1484.884815985472</v>
+        <v>1443.841115634091</v>
       </c>
       <c r="D32" t="n">
-        <v>1210.136991600045</v>
+        <v>1175.601839200823</v>
       </c>
       <c r="E32" t="n">
-        <v>918.2467711144932</v>
+        <v>890.2201666674327</v>
       </c>
       <c r="F32" t="n">
-        <v>612.0456370423749</v>
+        <v>590.5275805474753</v>
       </c>
       <c r="G32" t="n">
-        <v>309.576185928282</v>
+        <v>294.5666773855432</v>
       </c>
       <c r="H32" t="n">
-        <v>96.18643989267659</v>
+        <v>87.68547930209921</v>
       </c>
       <c r="I32" t="n">
-        <v>68.54262738304546</v>
+        <v>66.55021474462889</v>
       </c>
       <c r="J32" t="n">
-        <v>213.1924002918736</v>
+        <v>313.4537171503131</v>
       </c>
       <c r="K32" t="n">
-        <v>572.1747563193354</v>
+        <v>672.4360731777749</v>
       </c>
       <c r="L32" t="n">
-        <v>1065.495048037864</v>
+        <v>1165.756364896304</v>
       </c>
       <c r="M32" t="n">
-        <v>1719.986455722831</v>
+        <v>1826.626800429183</v>
       </c>
       <c r="N32" t="n">
-        <v>2356.288247000678</v>
+        <v>2354.438084066645</v>
       </c>
       <c r="O32" t="n">
-        <v>2894.098316879802</v>
+        <v>2794.477684958973</v>
       </c>
       <c r="P32" t="n">
-        <v>3242.285809011324</v>
+        <v>3142.665177090495</v>
       </c>
       <c r="Q32" t="n">
-        <v>3427.131369152273</v>
+        <v>3327.510737231444</v>
       </c>
       <c r="R32" t="n">
-        <v>3427.131369152273</v>
+        <v>3327.510737231444</v>
       </c>
       <c r="S32" t="n">
-        <v>3371.311118491228</v>
+        <v>3278.199034522559</v>
       </c>
       <c r="T32" t="n">
-        <v>3258.503820448549</v>
+        <v>3171.900284432041</v>
       </c>
       <c r="U32" t="n">
-        <v>3113.444395281051</v>
+        <v>3033.349407216705</v>
       </c>
       <c r="V32" t="n">
-        <v>2882.030890382473</v>
+        <v>2808.444450270288</v>
       </c>
       <c r="W32" t="n">
-        <v>2621.725159748665</v>
+        <v>2554.647267588641</v>
       </c>
       <c r="X32" t="n">
-        <v>2342.965859079626</v>
+        <v>2282.396514871763</v>
       </c>
       <c r="Y32" t="n">
-        <v>2057.168454398131</v>
+        <v>2003.107658142428</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>867.9086105230764</v>
+        <v>865.9161978846598</v>
       </c>
       <c r="C33" t="n">
-        <v>717.2543800831686</v>
+        <v>715.261967444752</v>
       </c>
       <c r="D33" t="n">
-        <v>587.1654127046489</v>
+        <v>585.1730000662324</v>
       </c>
       <c r="E33" t="n">
-        <v>450.7189218155366</v>
+        <v>448.7265091771201</v>
       </c>
       <c r="F33" t="n">
-        <v>326.2871156986685</v>
+        <v>324.2947030602519</v>
       </c>
       <c r="G33" t="n">
-        <v>206.2272977705329</v>
+        <v>204.2348851321163</v>
       </c>
       <c r="H33" t="n">
-        <v>117.9298813711339</v>
+        <v>115.9374687327173</v>
       </c>
       <c r="I33" t="n">
-        <v>68.54262738304546</v>
+        <v>66.55021474462889</v>
       </c>
       <c r="J33" t="n">
-        <v>68.54262738304546</v>
+        <v>179.6651969643563</v>
       </c>
       <c r="K33" t="n">
-        <v>68.54262738304546</v>
+        <v>499.4043430265827</v>
       </c>
       <c r="L33" t="n">
-        <v>552.1087132813587</v>
+        <v>982.9704289248959</v>
       </c>
       <c r="M33" t="n">
-        <v>1179.88036290804</v>
+        <v>1228.379006857996</v>
       </c>
       <c r="N33" t="n">
-        <v>1464.736511051303</v>
+        <v>1228.379006857996</v>
       </c>
       <c r="O33" t="n">
-        <v>1981.256793642284</v>
+        <v>1744.899289448977</v>
       </c>
       <c r="P33" t="n">
-        <v>2386.878162358681</v>
+        <v>2150.520658165374</v>
       </c>
       <c r="Q33" t="n">
-        <v>2386.878162358681</v>
+        <v>2384.885749720265</v>
       </c>
       <c r="R33" t="n">
-        <v>2362.961119256746</v>
+        <v>2360.968706618329</v>
       </c>
       <c r="S33" t="n">
-        <v>2228.030442156615</v>
+        <v>2226.038029518198</v>
       </c>
       <c r="T33" t="n">
-        <v>2051.046630355523</v>
+        <v>2049.054217717106</v>
       </c>
       <c r="U33" t="n">
-        <v>1840.983487034165</v>
+        <v>1838.991074395748</v>
       </c>
       <c r="V33" t="n">
-        <v>1618.443485405232</v>
+        <v>1616.451072766815</v>
       </c>
       <c r="W33" t="n">
-        <v>1388.326239538519</v>
+        <v>1386.333826900102</v>
       </c>
       <c r="X33" t="n">
-        <v>1199.019161888531</v>
+        <v>1197.026749250114</v>
       </c>
       <c r="Y33" t="n">
-        <v>1019.704944964038</v>
+        <v>1017.712532325621</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>389.2395048590204</v>
+        <v>341.6872565554781</v>
       </c>
       <c r="C34" t="n">
-        <v>329.7276913229136</v>
+        <v>288.6839909715322</v>
       </c>
       <c r="D34" t="n">
-        <v>284.7878826233325</v>
+        <v>250.2527302241118</v>
       </c>
       <c r="E34" t="n">
-        <v>239.922374880439</v>
+        <v>211.8957704333791</v>
       </c>
       <c r="F34" t="n">
-        <v>193.289744491316</v>
+        <v>171.7716879964169</v>
       </c>
       <c r="G34" t="n">
-        <v>135.7289949886655</v>
+        <v>120.7194864459273</v>
       </c>
       <c r="H34" t="n">
-        <v>90.94374834806354</v>
+        <v>82.44278775748614</v>
       </c>
       <c r="I34" t="n">
-        <v>68.54262738304546</v>
+        <v>66.55021474462889</v>
       </c>
       <c r="J34" t="n">
-        <v>68.54262738304546</v>
+        <v>80.4000225128579</v>
       </c>
       <c r="K34" t="n">
-        <v>150.3776684929873</v>
+        <v>277.1045991110983</v>
       </c>
       <c r="L34" t="n">
-        <v>314.5053083667871</v>
+        <v>441.2322389848981</v>
       </c>
       <c r="M34" t="n">
-        <v>609.2873943454367</v>
+        <v>627.5238173231621</v>
       </c>
       <c r="N34" t="n">
-        <v>900.9675360170318</v>
+        <v>810.7134513543713</v>
       </c>
       <c r="O34" t="n">
-        <v>1172.162810699126</v>
+        <v>1088.287753884378</v>
       </c>
       <c r="P34" t="n">
-        <v>1400.52948411609</v>
+        <v>1208.163919660956</v>
       </c>
       <c r="Q34" t="n">
-        <v>1432.584831392296</v>
+        <v>1326.455651519306</v>
       </c>
       <c r="R34" t="n">
-        <v>1419.377146422777</v>
+        <v>1319.756514501948</v>
       </c>
       <c r="S34" t="n">
-        <v>1327.25436700323</v>
+        <v>1234.142283034562</v>
       </c>
       <c r="T34" t="n">
-        <v>1202.228619569368</v>
+        <v>1115.625083552861</v>
       </c>
       <c r="U34" t="n">
-        <v>1027.483132209173</v>
+        <v>947.3881441448268</v>
       </c>
       <c r="V34" t="n">
-        <v>872.1970914279015</v>
+        <v>798.6106513157159</v>
       </c>
       <c r="W34" t="n">
-        <v>699.5599937569831</v>
+        <v>632.4821015969584</v>
       </c>
       <c r="X34" t="n">
-        <v>576.1729759378702</v>
+        <v>515.6036317300063</v>
       </c>
       <c r="Y34" t="n">
-        <v>463.7542191524176</v>
+        <v>409.6934228967146</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D35" t="n">
         <v>1098.796330498593</v>
@@ -6929,7 +6929,7 @@
         <v>261.1858216803435</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6962,7 +6962,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6980,7 +6980,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1173.45686322911</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N36" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462917</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7105,40 +7105,40 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>683.1426636655142</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296507</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>965.7235964838011</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S37" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G38" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H38" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7214,7 +7214,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y38" t="n">
         <v>1882.877496443165</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7348,10 +7348,10 @@
         <v>969.3241577214669</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1812.812015342702</v>
+        <v>1586.170216899326</v>
       </c>
       <c r="C41" t="n">
-        <v>1517.077765835766</v>
+        <v>1290.435967392389</v>
       </c>
       <c r="D41" t="n">
-        <v>1229.077889042567</v>
+        <v>1002.43609059919</v>
       </c>
       <c r="E41" t="n">
-        <v>923.9356161492442</v>
+        <v>697.293817705868</v>
       </c>
       <c r="F41" t="n">
-        <v>604.4824296693553</v>
+        <v>377.8406312259791</v>
       </c>
       <c r="G41" t="n">
-        <v>288.7609261474917</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H41" t="n">
         <v>62.11912770411553</v>
@@ -7439,22 +7439,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T41" t="n">
-        <v>3105.956385205776</v>
+        <v>2979.897034755326</v>
       </c>
       <c r="U41" t="n">
-        <v>3105.956385205776</v>
+        <v>2821.585557180058</v>
       </c>
       <c r="V41" t="n">
-        <v>2980.484102271621</v>
+        <v>2576.919999873709</v>
       </c>
       <c r="W41" t="n">
-        <v>2706.926319230041</v>
+        <v>2303.36221683213</v>
       </c>
       <c r="X41" t="n">
-        <v>2414.914966153231</v>
+        <v>2011.35086375532</v>
       </c>
       <c r="Y41" t="n">
-        <v>2115.865509063965</v>
+        <v>1712.301406666055</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>689.8907773307967</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N42" t="n">
-        <v>1345.668748541356</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
-        <v>1862.189031132337</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
-        <v>2267.810399848734</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>475.5803720344865</v>
+        <v>475.580372034486</v>
       </c>
       <c r="C43" t="n">
-        <v>402.8165060906089</v>
+        <v>402.8165060906085</v>
       </c>
       <c r="D43" t="n">
-        <v>344.6246449832568</v>
+        <v>344.6246449832565</v>
       </c>
       <c r="E43" t="n">
-        <v>286.5070848325925</v>
+        <v>286.5070848325922</v>
       </c>
       <c r="F43" t="n">
-        <v>226.6224020356986</v>
+        <v>226.6224020356984</v>
       </c>
       <c r="G43" t="n">
-        <v>155.8096001252773</v>
+        <v>155.8096001252772</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77230107690447</v>
+        <v>97.7723010769044</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>68.23195016744069</v>
+        <v>127.8475561822076</v>
       </c>
       <c r="K43" t="n">
-        <v>245.5691623529121</v>
+        <v>305.1847683676791</v>
       </c>
       <c r="L43" t="n">
-        <v>505.1989733022414</v>
+        <v>564.8145793170083</v>
       </c>
       <c r="M43" t="n">
-        <v>786.9927227160349</v>
+        <v>786.9927227160337</v>
       </c>
       <c r="N43" t="n">
-        <v>1065.684527822774</v>
+        <v>1065.684527822772</v>
       </c>
       <c r="O43" t="n">
-        <v>1323.891465940011</v>
+        <v>1323.89146594001</v>
       </c>
       <c r="P43" t="n">
-        <v>1539.269802792119</v>
+        <v>1539.269802792118</v>
       </c>
       <c r="Q43" t="n">
-        <v>1638.1941702377</v>
+        <v>1638.194170237699</v>
       </c>
       <c r="R43" t="n">
-        <v>1611.73443286041</v>
+        <v>1611.734432860409</v>
       </c>
       <c r="S43" t="n">
         <v>1506.359601033092</v>
       </c>
       <c r="T43" t="n">
-        <v>1368.08180119146</v>
+        <v>1368.081801191459</v>
       </c>
       <c r="U43" t="n">
-        <v>1180.084261423494</v>
+        <v>1180.084261423493</v>
       </c>
       <c r="V43" t="n">
-        <v>1011.546168234451</v>
+        <v>1011.54616823445</v>
       </c>
       <c r="W43" t="n">
-        <v>825.6570181557618</v>
+        <v>825.6570181557611</v>
       </c>
       <c r="X43" t="n">
-        <v>689.017947928878</v>
+        <v>689.0179479288774</v>
       </c>
       <c r="Y43" t="n">
-        <v>563.3471387356545</v>
+        <v>563.3471387356541</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1565.708003466905</v>
+        <v>1627.066081816728</v>
       </c>
       <c r="C44" t="n">
-        <v>1269.973753959969</v>
+        <v>1331.331832309791</v>
       </c>
       <c r="D44" t="n">
-        <v>1269.973753959969</v>
+        <v>1043.331955516592</v>
       </c>
       <c r="E44" t="n">
-        <v>964.8314810666466</v>
+        <v>738.1896826232701</v>
       </c>
       <c r="F44" t="n">
-        <v>645.3782945867574</v>
+        <v>418.736496143381</v>
       </c>
       <c r="G44" t="n">
-        <v>329.6567910648937</v>
+        <v>103.0149926215174</v>
       </c>
       <c r="H44" t="n">
-        <v>103.0149926215175</v>
+        <v>103.0149926215174</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7679,19 +7679,19 @@
         <v>2910.82473168651</v>
       </c>
       <c r="U44" t="n">
-        <v>2752.513254111242</v>
+        <v>2910.82473168651</v>
       </c>
       <c r="V44" t="n">
-        <v>2733.380090395824</v>
+        <v>2794.738168745646</v>
       </c>
       <c r="W44" t="n">
-        <v>2459.822307354245</v>
+        <v>2521.180385704067</v>
       </c>
       <c r="X44" t="n">
-        <v>2167.810954277435</v>
+        <v>2229.169032627257</v>
       </c>
       <c r="Y44" t="n">
-        <v>1868.761497188169</v>
+        <v>1930.119575537991</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>96.81867335321709</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>580.3847592515303</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1208.156408878212</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N45" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>475.5803720344865</v>
+        <v>475.5803720344858</v>
       </c>
       <c r="C46" t="n">
-        <v>402.8165060906089</v>
+        <v>402.8165060906083</v>
       </c>
       <c r="D46" t="n">
-        <v>344.6246449832568</v>
+        <v>344.6246449832563</v>
       </c>
       <c r="E46" t="n">
-        <v>286.5070848325925</v>
+        <v>286.5070848325921</v>
       </c>
       <c r="F46" t="n">
-        <v>226.6224020356986</v>
+        <v>226.6224020356983</v>
       </c>
       <c r="G46" t="n">
-        <v>155.8096001252773</v>
+        <v>155.8096001252771</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77230107690447</v>
+        <v>97.77230107690437</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>127.8475561822076</v>
+        <v>127.8475561822077</v>
       </c>
       <c r="K46" t="n">
-        <v>305.184768367679</v>
+        <v>305.1847683676791</v>
       </c>
       <c r="L46" t="n">
-        <v>564.8145793170083</v>
+        <v>505.198973302239</v>
       </c>
       <c r="M46" t="n">
-        <v>846.6083287308019</v>
+        <v>786.9927227160326</v>
       </c>
       <c r="N46" t="n">
-        <v>1125.300133837541</v>
+        <v>1065.684527822772</v>
       </c>
       <c r="O46" t="n">
-        <v>1383.507071954778</v>
+        <v>1323.891465940009</v>
       </c>
       <c r="P46" t="n">
-        <v>1539.269802792119</v>
+        <v>1539.269802792117</v>
       </c>
       <c r="Q46" t="n">
-        <v>1638.1941702377</v>
+        <v>1638.194170237698</v>
       </c>
       <c r="R46" t="n">
-        <v>1611.73443286041</v>
+        <v>1611.734432860408</v>
       </c>
       <c r="S46" t="n">
-        <v>1506.359601033092</v>
+        <v>1506.359601033091</v>
       </c>
       <c r="T46" t="n">
-        <v>1368.08180119146</v>
+        <v>1368.081801191458</v>
       </c>
       <c r="U46" t="n">
-        <v>1180.084261423494</v>
+        <v>1180.084261423493</v>
       </c>
       <c r="V46" t="n">
-        <v>1011.546168234451</v>
+        <v>1011.54616823445</v>
       </c>
       <c r="W46" t="n">
-        <v>825.6570181557618</v>
+        <v>825.6570181557609</v>
       </c>
       <c r="X46" t="n">
-        <v>689.017947928878</v>
+        <v>689.0179479288772</v>
       </c>
       <c r="Y46" t="n">
-        <v>563.3471387356545</v>
+        <v>563.3471387356539</v>
       </c>
     </row>
   </sheetData>
@@ -7976,19 +7976,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>211.1549943349281</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>680.8592833107123</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>680.2527230507691</v>
+        <v>163.656769330584</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -8061,16 +8061,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>468.6333811313529</v>
+        <v>428.2112435663642</v>
       </c>
       <c r="N3" t="n">
-        <v>616.5063445671516</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>598.9166326216668</v>
       </c>
       <c r="P3" t="n">
         <v>87.08336481931465</v>
@@ -8216,22 +8216,22 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>522.4691393905042</v>
       </c>
       <c r="M5" t="n">
-        <v>614.5822300086417</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>149.1184913377841</v>
+        <v>655.347565070562</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
         <v>331.2113854294513</v>
@@ -8295,22 +8295,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>538.8248589728661</v>
+        <v>524.6903194477686</v>
       </c>
       <c r="N6" t="n">
-        <v>85.37211285416666</v>
+        <v>591.6011865869446</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>598.9166326216668</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
         <v>327.7205688679246</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>457.1386964627902</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8465,7 +8465,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600596</v>
       </c>
       <c r="P8" t="n">
         <v>150.3014472409252</v>
@@ -8538,19 +8538,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>340.274574506989</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>507.6329599720908</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8769,7 +8769,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
@@ -8778,16 +8778,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>136.3731801151487</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>326.5064297756122</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,16 +9003,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
         <v>747.7741039759435</v>
@@ -9021,7 +9021,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>319.0197961262124</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q15" t="n">
         <v>90.98815315591399</v>
@@ -9240,28 +9240,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>290.5921503773105</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>263.7907196684361</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K20" t="n">
         <v>505.666843611017</v>
@@ -9477,7 +9477,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
@@ -9486,10 +9486,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>577.006990218999</v>
       </c>
       <c r="N21" t="n">
-        <v>684.2495388215582</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9714,19 +9714,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>351.8313913012159</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9735,7 +9735,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9951,28 +9951,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>124.6469814435366</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10188,28 +10188,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>124.6469814435366</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10425,19 +10425,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N33" t="n">
-        <v>373.1055958271596</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10446,7 +10446,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10662,28 +10662,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -11136,19 +11136,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11157,7 +11157,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>204.7702368236083</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,28 +11373,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>124.646981443537</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4294963069848791</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>315.0398534825604</v>
+        <v>173.5616339479577</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.85714503404348</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U11" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414336</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.85714503404348</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>77.58553892411372</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>141.6320280943873</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>175.1530809149893</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25643,10 +25643,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>224.3753804589423</v>
       </c>
       <c r="I41" t="n">
-        <v>40.48690626822798</v>
+        <v>40.48690626822791</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,16 +25676,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.38158003812811</v>
+        <v>68.38158003812804</v>
       </c>
       <c r="T41" t="n">
-        <v>124.7987569459457</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>156.7283627995155</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>118.0013416284712</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25868,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>285.1198780252671</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>224.3753804589423</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25919,10 +25919,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>156.7283627995154</v>
       </c>
       <c r="V44" t="n">
-        <v>223.2770696550211</v>
+        <v>127.2932044218294</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>562432.532516622</v>
+        <v>561830.9849028616</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>562432.532516622</v>
+        <v>561830.9849028616</v>
       </c>
     </row>
     <row r="4">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>536453.8224878703</v>
+        <v>536453.8224878705</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>536453.8224878703</v>
+        <v>536453.8224878705</v>
       </c>
     </row>
   </sheetData>
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>721328.7123734273</v>
+        <v>721328.7123734272</v>
       </c>
       <c r="C2" t="n">
         <v>721328.7123734271</v>
       </c>
       <c r="D2" t="n">
-        <v>721328.7123734271</v>
+        <v>721328.7123734269</v>
       </c>
       <c r="E2" t="n">
         <v>677904.4907329528</v>
       </c>
       <c r="F2" t="n">
-        <v>677904.4907329523</v>
+        <v>677904.4907329532</v>
       </c>
       <c r="G2" t="n">
-        <v>721328.7123734269</v>
+        <v>721328.7123734275</v>
       </c>
       <c r="H2" t="n">
-        <v>721328.7123734276</v>
+        <v>721328.7123734275</v>
       </c>
       <c r="I2" t="n">
         <v>721328.7123734276</v>
       </c>
       <c r="J2" t="n">
-        <v>721328.7123734272</v>
+        <v>721328.7123734273</v>
       </c>
       <c r="K2" t="n">
-        <v>721328.7123734273</v>
+        <v>721328.7123734275</v>
       </c>
       <c r="L2" t="n">
-        <v>721328.7123734271</v>
+        <v>721328.7123734282</v>
       </c>
       <c r="M2" t="n">
         <v>721328.7123734275</v>
@@ -26350,10 +26350,10 @@
         <v>721328.7123734275</v>
       </c>
       <c r="O2" t="n">
-        <v>680860.3153380762</v>
+        <v>680860.3153380763</v>
       </c>
       <c r="P2" t="n">
-        <v>680860.3153380762</v>
+        <v>680860.3153380763</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177995.2971343507</v>
+        <v>169649.0058765497</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18724.12238602661</v>
+        <v>26460.41160941832</v>
       </c>
       <c r="E3" t="n">
         <v>130452.9311377121</v>
@@ -26378,31 +26378,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301434</v>
+        <v>29094.95587301435</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>221845.8749469665</v>
+        <v>215329.5897923932</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>41571.03337670117</v>
+        <v>46725.80335481255</v>
       </c>
       <c r="M3" t="n">
-        <v>42731.27693436849</v>
+        <v>43782.97194555667</v>
       </c>
       <c r="N3" t="n">
         <v>2.273736754432321e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>18983.55983015677</v>
+        <v>18983.55983015684</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192027.5467249334</v>
+        <v>198138.1733873964</v>
       </c>
       <c r="C4" t="n">
-        <v>192027.5467249334</v>
+        <v>198138.1733873964</v>
       </c>
       <c r="D4" t="n">
         <v>177238.0115641587</v>
@@ -26427,7 +26427,7 @@
         <v>123047.6773561512</v>
       </c>
       <c r="F4" t="n">
-        <v>123047.6773561513</v>
+        <v>123047.6773561512</v>
       </c>
       <c r="G4" t="n">
         <v>147651.9979996332</v>
@@ -26436,7 +26436,7 @@
         <v>147651.9979996332</v>
       </c>
       <c r="I4" t="n">
-        <v>147651.9979996333</v>
+        <v>147651.9979996332</v>
       </c>
       <c r="J4" t="n">
         <v>148402.4904640164</v>
@@ -26445,7 +26445,7 @@
         <v>148402.4904640163</v>
       </c>
       <c r="L4" t="n">
-        <v>148079.6358093551</v>
+        <v>147946.2412003005</v>
       </c>
       <c r="M4" t="n">
         <v>147651.9979996332</v>
@@ -26454,10 +26454,10 @@
         <v>147651.9979996332</v>
       </c>
       <c r="O4" t="n">
-        <v>124722.2932551426</v>
+        <v>124722.2932551427</v>
       </c>
       <c r="P4" t="n">
-        <v>124722.2932551426</v>
+        <v>124722.2932551427</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65920.56128814947</v>
+        <v>64406.32768295289</v>
       </c>
       <c r="C5" t="n">
-        <v>65920.56128814947</v>
+        <v>64406.32768295289</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26485,19 +26485,19 @@
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.04525391951</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61305.21346446766</v>
+        <v>60332.67530588337</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26506,10 +26506,10 @@
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>55320.40778255071</v>
+        <v>55320.40778255072</v>
       </c>
       <c r="P5" t="n">
-        <v>55320.40778255071</v>
+        <v>55320.40778255073</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>285385.3072259938</v>
+        <v>289135.2054265282</v>
       </c>
       <c r="C6" t="n">
-        <v>463380.6043603442</v>
+        <v>458784.2113030779</v>
       </c>
       <c r="D6" t="n">
-        <v>455781.1211460686</v>
+        <v>448044.8319226766</v>
       </c>
       <c r="E6" t="n">
-        <v>369291.5927301804</v>
+        <v>369183.0321760792</v>
       </c>
       <c r="F6" t="n">
-        <v>499744.5238678919</v>
+        <v>499635.9633137917</v>
       </c>
       <c r="G6" t="n">
-        <v>486411.9891852597</v>
+        <v>486411.9891852602</v>
       </c>
       <c r="H6" t="n">
-        <v>515506.9450582747</v>
+        <v>515506.9450582746</v>
       </c>
       <c r="I6" t="n">
         <v>515506.9450582747</v>
       </c>
       <c r="J6" t="n">
-        <v>287421.3017085248</v>
+        <v>293937.5868630983</v>
       </c>
       <c r="K6" t="n">
-        <v>509267.1766554915</v>
+        <v>509267.1766554916</v>
       </c>
       <c r="L6" t="n">
-        <v>470372.8297229031</v>
+        <v>466323.9925124317</v>
       </c>
       <c r="M6" t="n">
-        <v>472775.6681239061</v>
+        <v>471723.9731127179</v>
       </c>
       <c r="N6" t="n">
         <v>515506.9450582746</v>
       </c>
       <c r="O6" t="n">
-        <v>481834.0544702261</v>
+        <v>481732.8834776377</v>
       </c>
       <c r="P6" t="n">
-        <v>500817.614300383</v>
+        <v>500716.4433077946</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26722,10 +26722,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>96.46683947023183</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="P2" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.134231712985</v>
+        <v>506.2290737327779</v>
       </c>
       <c r="C4" t="n">
-        <v>531.134231712985</v>
+        <v>506.2290737327779</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,19 +26805,19 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443784</v>
+        <v>917.0607368443781</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>856.7828422880682</v>
+        <v>831.877684307861</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26914,16 +26914,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>36.36869484126792</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>51.96379172087646</v>
+        <v>58.40725419351568</v>
       </c>
       <c r="M2" t="n">
-        <v>20.77359796165939</v>
+        <v>14.33013548902018</v>
       </c>
       <c r="N2" t="n">
         <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72944978769596</v>
+        <v>23.72944978769605</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.134231712985</v>
+        <v>506.2290737327779</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>60.27789455631012</v>
+        <v>85.18305253651715</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>671.7058722559192</v>
+        <v>646.8007142757119</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>104.7832240455249</v>
+        <v>129.688382025732</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,16 +27151,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>36.36869484126792</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>531.134231712985</v>
+        <v>506.2290737327779</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>60.27789455631012</v>
+        <v>85.18305253651715</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27379,7 +27379,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>102.0208857583065</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>25.59332509996358</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>21.78304627150428</v>
       </c>
       <c r="S3" t="n">
         <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>76.66721019408145</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.657574321493826</v>
+        <v>36.93788495416439</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
@@ -27558,7 +27558,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
@@ -27625,16 +27625,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>42.14893732720213</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>109.9974226221948</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27746,7 +27746,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>76.66721019408145</v>
+        <v>173.3191472836688</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>20.47658781971811</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -27828,13 +27828,13 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>179.7670380862491</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -27853,19 +27853,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>90.42186815757896</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>109.6215702304114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>23.65888910788243</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -28074,10 +28074,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>66.12369447580221</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="17">
@@ -28743,10 +28743,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668816</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28758,10 +28758,10 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -28980,7 +28980,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -28998,10 +28998,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>5.636002634528936</v>
+        <v>35.71049010668756</v>
       </c>
       <c r="Q22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
@@ -29059,7 +29059,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J23" t="n">
-        <v>9.379164112033322e-13</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -29220,7 +29220,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29229,10 +29229,10 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -29241,7 +29241,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082774</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901181</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P26" t="n">
-        <v>30.27223765901323</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="29">
@@ -29533,13 +29533,13 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901215</v>
       </c>
       <c r="M29" t="n">
         <v>93.99127447431646</v>
@@ -29548,16 +29548,16 @@
         <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>86.65052755599589</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S29" t="n">
         <v>93.99127447431646</v>
@@ -29746,31 +29746,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="C32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="D32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="E32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="F32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="G32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="H32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="I32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>103.2865954513698</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -29779,13 +29779,13 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="N32" t="n">
-        <v>109.586371353925</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>98.75804948161124</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="T32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="U32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="V32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="W32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="X32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="Y32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="C34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="D34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="E34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="F34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="G34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="H34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="I34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>44.06419228855201</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>109.586371353925</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>109.586371353925</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="P34" t="n">
-        <v>109.586371353925</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>28.92237465268165</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="R34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="S34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="T34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="U34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="V34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="W34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="X34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="Y34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
     </row>
     <row r="35">
@@ -30177,16 +30177,16 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5.636002634529405</v>
+      </c>
+      <c r="Q37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>122.6619794737488</v>
@@ -30420,13 +30420,13 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>5.636002634528595</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>96.46683947023183</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="C41" t="n">
-        <v>96.46683947023183</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="D41" t="n">
-        <v>96.46683947023183</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="E41" t="n">
-        <v>96.46683947023183</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="F41" t="n">
-        <v>96.46683947023183</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="G41" t="n">
-        <v>96.46683947023183</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="H41" t="n">
-        <v>96.46683947023183</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="I41" t="n">
-        <v>96.46683947023183</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>96.46683947023183</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="T41" t="n">
-        <v>96.46683947023183</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="U41" t="n">
-        <v>96.46683947023183</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="V41" t="n">
-        <v>96.46683947023183</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="W41" t="n">
-        <v>96.46683947023183</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="X41" t="n">
-        <v>96.46683947023183</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="Y41" t="n">
-        <v>96.46683947023183</v>
+        <v>96.4668394702319</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.46683947023183</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="C43" t="n">
-        <v>96.46683947023183</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="D43" t="n">
-        <v>96.46683947023183</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="E43" t="n">
-        <v>96.46683947023183</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="F43" t="n">
-        <v>96.46683947023183</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="G43" t="n">
-        <v>96.46683947023183</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="H43" t="n">
-        <v>96.46683947023183</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="I43" t="n">
-        <v>96.46683947023183</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="J43" t="n">
-        <v>36.24905561693195</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="K43" t="n">
-        <v>96.46683947023183</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="L43" t="n">
-        <v>96.46683947023183</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="M43" t="n">
-        <v>96.46683947023183</v>
+        <v>36.2490556169306</v>
       </c>
       <c r="N43" t="n">
-        <v>96.46683947023183</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="O43" t="n">
-        <v>96.46683947023183</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="P43" t="n">
-        <v>96.46683947023183</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.46683947023183</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="R43" t="n">
-        <v>96.46683947023183</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="S43" t="n">
-        <v>96.46683947023183</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="T43" t="n">
-        <v>96.46683947023183</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="U43" t="n">
-        <v>96.46683947023183</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="V43" t="n">
-        <v>96.46683947023183</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="W43" t="n">
-        <v>96.46683947023183</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="X43" t="n">
-        <v>96.46683947023183</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="Y43" t="n">
-        <v>96.46683947023183</v>
+        <v>96.4668394702319</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="C44" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="D44" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="E44" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="F44" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="G44" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="H44" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="I44" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="T44" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="U44" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="V44" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="W44" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="X44" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="Y44" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="C46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="D46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="E46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="F46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="G46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="H46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="I46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="J46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="K46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="L46" t="n">
-        <v>96.46683947023183</v>
+        <v>36.24905561692938</v>
       </c>
       <c r="M46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="N46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="O46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="P46" t="n">
-        <v>36.24905561693174</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="Q46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="R46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="S46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="T46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="U46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="V46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="W46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="X46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="Y46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
     </row>
   </sheetData>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>57.9068246044364</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>531.134231712985</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>531.134231712985</v>
+        <v>14.53827799279996</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34781,16 +34781,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>376.246259082041</v>
+        <v>335.8241215170523</v>
       </c>
       <c r="N3" t="n">
-        <v>531.134231712985</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>506.2290737327779</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34936,22 +34936,22 @@
         <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>369.2209696600125</v>
       </c>
       <c r="M5" t="n">
-        <v>464.8571784109144</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>506.2290737327779</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
         <v>186.7126870110591</v>
@@ -35015,22 +35015,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>446.4377369235542</v>
+        <v>432.3031973984567</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>506.2290737327779</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>506.2290737327779</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>236.7324157120106</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>303.8905267322986</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35185,7 +35185,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359632</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35258,19 +35258,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>247.8874524576771</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>414.9454010832019</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
@@ -35498,16 +35498,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>51.00106726098203</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>233.8188708867233</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K13" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L13" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M13" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N13" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O13" t="n">
         <v>258.3395240113953</v>
@@ -35586,7 +35586,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
         <v>662.4019911217769</v>
@@ -35741,7 +35741,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>231.9364313068977</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.91678700215736</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K16" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L16" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M16" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N16" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O16" t="n">
         <v>258.3395240113953</v>
@@ -35823,7 +35823,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>200.5318035203923</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="K19" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
@@ -36054,10 +36054,10 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>169.9842521716079</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>146.1108817260899</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K20" t="n">
         <v>362.6084404317796</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
@@ -36206,10 +36206,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="N21" t="n">
-        <v>598.8774259673916</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
@@ -36294,10 +36294,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>126.7230387724871</v>
+        <v>156.7975262446457</v>
       </c>
       <c r="Q22" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>146.1108817260899</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K23" t="n">
         <v>362.6084404317796</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>259.444269251904</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36455,7 +36455,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36525,10 +36525,10 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>169.9842521716079</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
         <v>121.0870361379582</v>
@@ -36537,7 +36537,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>5.636002634528635</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K26" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>592.2945994425274</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>581.7882983101033</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
         <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>381.9767751656009</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>56.3782898969832</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>35.05004611020327</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N27" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,13 +36829,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>592.2945994425274</v>
+        <v>528.5755626272231</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
@@ -36844,16 +36844,16 @@
         <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>438.3550650625836</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>35.05004611020328</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>146.110881726089</v>
+        <v>249.3974771774588</v>
       </c>
       <c r="K32" t="n">
         <v>362.6084404317796</v>
@@ -37075,13 +37075,13 @@
         <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>661.1024320050165</v>
+        <v>667.5458944776557</v>
       </c>
       <c r="N32" t="n">
-        <v>642.7290820988361</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>543.2424948273975</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N33" t="n">
-        <v>287.7334829729929</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37166,7 +37166,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>13.98970481639294</v>
       </c>
       <c r="K34" t="n">
-        <v>82.66165768680997</v>
+        <v>198.6914915133742</v>
       </c>
       <c r="L34" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>297.7596828067169</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>294.6264057288838</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>273.9346208910039</v>
+        <v>280.378083363643</v>
       </c>
       <c r="P34" t="n">
-        <v>230.6734074918832</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>32.37913866283414</v>
+        <v>119.4865978367167</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N36" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37473,16 +37473,16 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>190.6760370094878</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724876</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257368</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37716,13 +37716,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>126.7230387724868</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37877,7 +37877,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>113.7820836676943</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>6.174568144772888</v>
+        <v>66.39235199807283</v>
       </c>
       <c r="K43" t="n">
-        <v>179.1284971570418</v>
+        <v>179.1284971570419</v>
       </c>
       <c r="L43" t="n">
-        <v>262.2523342922518</v>
+        <v>262.2523342922519</v>
       </c>
       <c r="M43" t="n">
-        <v>284.6401509230238</v>
+        <v>224.4223670697226</v>
       </c>
       <c r="N43" t="n">
-        <v>281.5068738451906</v>
+        <v>281.5068738451907</v>
       </c>
       <c r="O43" t="n">
         <v>260.8150890073107</v>
       </c>
       <c r="P43" t="n">
-        <v>217.55387560819</v>
+        <v>217.5538756081901</v>
       </c>
       <c r="Q43" t="n">
-        <v>99.92360348038432</v>
+        <v>99.92360348038439</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>35.0500461102036</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>66.39235199807277</v>
+        <v>66.39235199807285</v>
       </c>
       <c r="K46" t="n">
-        <v>179.1284971570418</v>
+        <v>179.1284971570419</v>
       </c>
       <c r="L46" t="n">
-        <v>262.2523342922518</v>
+        <v>202.0345504389494</v>
       </c>
       <c r="M46" t="n">
-        <v>284.6401509230238</v>
+        <v>284.6401509230239</v>
       </c>
       <c r="N46" t="n">
-        <v>281.5068738451906</v>
+        <v>281.5068738451907</v>
       </c>
       <c r="O46" t="n">
-        <v>260.8150890073107</v>
+        <v>260.8150890073108</v>
       </c>
       <c r="P46" t="n">
-        <v>157.3360917548899</v>
+        <v>217.5538756081901</v>
       </c>
       <c r="Q46" t="n">
-        <v>99.92360348038432</v>
+        <v>99.92360348038441</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
